--- a/Farwater_ZRS/Материалы отчетов ЗИН.xlsx
+++ b/Farwater_ZRS/Материалы отчетов ЗИН.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="161">
   <si>
     <t>Station</t>
   </si>
@@ -51,9 +51,6 @@
     <t>N_min</t>
   </si>
   <si>
-    <t>N_sec</t>
-  </si>
-  <si>
     <t>E_degr</t>
   </si>
   <si>
@@ -108,6 +105,42 @@
     <t>Банка № 8</t>
   </si>
   <si>
+    <t>ZIN_2006_St1</t>
+  </si>
+  <si>
+    <t>Отчет ЗИН 2006</t>
+  </si>
+  <si>
+    <t>ZIN_2006_St2</t>
+  </si>
+  <si>
+    <t>ZIN_2006_St3</t>
+  </si>
+  <si>
+    <t>ZIN_2006_St4</t>
+  </si>
+  <si>
+    <t>ZIN_2006_Bank4</t>
+  </si>
+  <si>
+    <t>Банка № 4</t>
+  </si>
+  <si>
+    <t>Пробы не брались, так как это точка дноуглубления. Дночерпатель не брал.</t>
+  </si>
+  <si>
+    <t>ZIN_2006_Bank6</t>
+  </si>
+  <si>
+    <t>Банка № 6</t>
+  </si>
+  <si>
+    <t>ZIN_2006_Bank7</t>
+  </si>
+  <si>
+    <t>ZIN_2006_Bank8</t>
+  </si>
+  <si>
     <t>Taxa</t>
   </si>
   <si>
@@ -117,76 +150,103 @@
     <t>N</t>
   </si>
   <si>
+    <t>Arenicola marina</t>
+  </si>
+  <si>
+    <t>Ascophyllum nodosum</t>
+  </si>
+  <si>
+    <t>Chaetomorpha sp.</t>
+  </si>
+  <si>
+    <t>Chaetopteris plumosa</t>
+  </si>
+  <si>
+    <t>Chironomus salinarius</t>
+  </si>
+  <si>
+    <t>Cladophora fracta</t>
+  </si>
+  <si>
+    <t>Cladophora rupestris</t>
+  </si>
+  <si>
+    <t>Cladophora sericea</t>
+  </si>
+  <si>
+    <t>Cricotopus vitripenis</t>
+  </si>
+  <si>
+    <t>Dictyosiphon foeniculatus</t>
+  </si>
+  <si>
+    <t>Eleocharis sp.</t>
+  </si>
+  <si>
+    <t>Enteromorpha prolifera</t>
+  </si>
+  <si>
+    <t>Eteone longa</t>
+  </si>
+  <si>
+    <t>Fabricia sabella</t>
+  </si>
+  <si>
     <t>Fucus vesiculosus</t>
   </si>
   <si>
-    <t>Ascophyllum nodosum</t>
+    <t>Gammarus sp.</t>
+  </si>
+  <si>
+    <t>Halicryptus spinulosus</t>
+  </si>
+  <si>
+    <t>Hydrobia ulvae</t>
+  </si>
+  <si>
+    <t>Jaera albifrons</t>
+  </si>
+  <si>
+    <t>Littorina littorea</t>
+  </si>
+  <si>
+    <t>Littorina obtusata</t>
+  </si>
+  <si>
+    <t>Littorina saxatilis</t>
+  </si>
+  <si>
+    <t>Macoma balthica</t>
+  </si>
+  <si>
+    <t>Monoculodes simplex</t>
   </si>
   <si>
     <t>Mytilus edulis</t>
   </si>
   <si>
-    <t>Macoma balthica</t>
-  </si>
-  <si>
-    <t>Littorina saxatilis</t>
-  </si>
-  <si>
-    <t>Hydrobia ulvae</t>
-  </si>
-  <si>
-    <t>Gammarus sp.</t>
-  </si>
-  <si>
-    <t>Jaera albifrons</t>
-  </si>
-  <si>
-    <t>Eteone longa</t>
+    <t>Nemertini</t>
+  </si>
+  <si>
+    <t>Oligochaeta</t>
+  </si>
+  <si>
+    <t>Onoba aculeus</t>
   </si>
   <si>
     <t>Peloscolex benedeni</t>
   </si>
   <si>
-    <t>Fabricia sabella</t>
-  </si>
-  <si>
-    <t>Cladophora fracta</t>
-  </si>
-  <si>
-    <t>Eleocharis sp.</t>
-  </si>
-  <si>
-    <t>Halicryptus spinulosus</t>
-  </si>
-  <si>
     <t>Pygospio elegans</t>
   </si>
   <si>
+    <t>Spio theeli</t>
+  </si>
+  <si>
     <t>Tubifex costatus</t>
   </si>
   <si>
-    <t>Chironomus salinarius</t>
-  </si>
-  <si>
-    <t>Dictyosiphon foeniculatus</t>
-  </si>
-  <si>
-    <t>Littorina obtusata</t>
-  </si>
-  <si>
-    <t>Littorina littorea</t>
-  </si>
-  <si>
-    <t>Nemertini</t>
-  </si>
-  <si>
-    <t>Enteromorpha prolifera</t>
-  </si>
-  <si>
-    <t>Cladophora rupestris</t>
-  </si>
-  <si>
-    <t>Onoba aculeus</t>
+    <t>Zostera marina</t>
   </si>
   <si>
     <t>Macoma calcarea</t>
@@ -255,6 +315,9 @@
     <t>Monobrachium parasitum</t>
   </si>
   <si>
+    <t>отмечен</t>
+  </si>
+  <si>
     <t>Perigonimus yoldiaearctice</t>
   </si>
   <si>
@@ -277,6 +340,177 @@
   </si>
   <si>
     <t>Dorvillea castjani</t>
+  </si>
+  <si>
+    <t>Clinocardium ciliatum</t>
+  </si>
+  <si>
+    <t>Nephthys ciliata</t>
+  </si>
+  <si>
+    <t>Ophiura robusta</t>
+  </si>
+  <si>
+    <t>Cryptonatica clausa</t>
+  </si>
+  <si>
+    <t>Stegophiura nodosa</t>
+  </si>
+  <si>
+    <t>Praxillella praetermissa</t>
+  </si>
+  <si>
+    <t>Nuculana pernula</t>
+  </si>
+  <si>
+    <t>Flustra foliacea</t>
+  </si>
+  <si>
+    <t>Lyonsia arenosa</t>
+  </si>
+  <si>
+    <t>Diastylis glabra</t>
+  </si>
+  <si>
+    <t>Golfingia margaritaceum</t>
+  </si>
+  <si>
+    <t>Laphania boecki</t>
+  </si>
+  <si>
+    <t>Polycirrus medusa</t>
+  </si>
+  <si>
+    <t>Crenella decussata</t>
+  </si>
+  <si>
+    <t>Rhodine gracilior</t>
+  </si>
+  <si>
+    <t>Eualys gaimardi</t>
+  </si>
+  <si>
+    <t>Spio arctica</t>
+  </si>
+  <si>
+    <t>Antinoella sarsi</t>
+  </si>
+  <si>
+    <t>Tharyx marioni</t>
+  </si>
+  <si>
+    <t>Scalibregma inflatum</t>
+  </si>
+  <si>
+    <t>Owenia fusiformis</t>
+  </si>
+  <si>
+    <t>Brada sp.</t>
+  </si>
+  <si>
+    <t>Nicomache lumbricalis</t>
+  </si>
+  <si>
+    <t>Oenopota sp.</t>
+  </si>
+  <si>
+    <t>Phycodrys sp.</t>
+  </si>
+  <si>
+    <t>Eucratea loricata</t>
+  </si>
+  <si>
+    <t>Diastylis scorpiodes</t>
+  </si>
+  <si>
+    <t>Ephesia gracilis</t>
+  </si>
+  <si>
+    <t>Proclea malmgreni</t>
+  </si>
+  <si>
+    <t>Petaloproctus tenius</t>
+  </si>
+  <si>
+    <t>Verruca stroemia</t>
+  </si>
+  <si>
+    <t>Nephthys minuta</t>
+  </si>
+  <si>
+    <t>Minuspio cirrifera</t>
+  </si>
+  <si>
+    <t>Cossura longicirrata</t>
+  </si>
+  <si>
+    <t>Polysiphonia sp.</t>
+  </si>
+  <si>
+    <t>Ptilota plumosa</t>
+  </si>
+  <si>
+    <t>Ariadnaria borealis</t>
+  </si>
+  <si>
+    <t>Melita palmata</t>
+  </si>
+  <si>
+    <t>Clumenura polaris</t>
+  </si>
+  <si>
+    <t>Notomastus latericeus</t>
+  </si>
+  <si>
+    <t>Terebellidae juv.sp.</t>
+  </si>
+  <si>
+    <t>Terebellides stroemi</t>
+  </si>
+  <si>
+    <t>Retusa perfenuis</t>
+  </si>
+  <si>
+    <t>Balanus sp.</t>
+  </si>
+  <si>
+    <t>Harmothoe imbricata</t>
+  </si>
+  <si>
+    <t>Pandora glacialis</t>
+  </si>
+  <si>
+    <t>Chone sp.</t>
+  </si>
+  <si>
+    <t>Onisimus edwardsi</t>
+  </si>
+  <si>
+    <t>Apistobranchus tulbergi</t>
+  </si>
+  <si>
+    <t>Cirratulus cirratus</t>
+  </si>
+  <si>
+    <t>Pholoe minuta</t>
+  </si>
+  <si>
+    <t>Oediceros borealis</t>
+  </si>
+  <si>
+    <t>Menesto truncatula</t>
+  </si>
+  <si>
+    <t>Philine lima</t>
+  </si>
+  <si>
+    <t>Phoxocephalus holboelli</t>
+  </si>
+  <si>
+    <t>Frigidolvania jammaeni</t>
+  </si>
+  <si>
+    <t>Amphithoe rubricata</t>
   </si>
 </sst>
 </file>
@@ -442,12 +676,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -636,12 +876,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,7 +1023,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,120 +1035,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,22 +1690,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="4" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1475,22 +1736,19 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>2005</v>
@@ -1501,29 +1759,28 @@
       <c r="G2">
         <v>4.92</v>
       </c>
-      <c r="H2"/>
+      <c r="H2">
+        <v>32</v>
+      </c>
       <c r="I2">
-        <v>32</v>
+        <v>19.04</v>
       </c>
       <c r="J2">
-        <v>19.04</v>
-      </c>
-      <c r="K2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>2005</v>
@@ -1534,28 +1791,28 @@
       <c r="G3">
         <v>4.67</v>
       </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
       <c r="I3">
-        <v>32</v>
+        <v>19.73</v>
       </c>
       <c r="J3">
-        <v>19.73</v>
-      </c>
-      <c r="K3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>2005</v>
@@ -1566,28 +1823,28 @@
       <c r="G4">
         <v>5.59</v>
       </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
       <c r="I4">
-        <v>32</v>
+        <v>22.12</v>
       </c>
       <c r="J4">
-        <v>22.12</v>
-      </c>
-      <c r="K4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>2005</v>
@@ -1598,28 +1855,28 @@
       <c r="G5">
         <v>0.64</v>
       </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
       <c r="I5">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="J5">
-        <v>31.4</v>
-      </c>
-      <c r="K5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2005</v>
@@ -1630,28 +1887,28 @@
       <c r="G6">
         <v>3.82</v>
       </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
       <c r="I6">
-        <v>32</v>
+        <v>25.57</v>
       </c>
       <c r="J6">
-        <v>25.57</v>
-      </c>
-      <c r="K6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>2005</v>
@@ -1662,14 +1919,264 @@
       <c r="G7">
         <v>4.52</v>
       </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
       <c r="I7">
+        <v>20.97</v>
+      </c>
+      <c r="J7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>4.926</v>
+      </c>
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="J7">
-        <v>20.97</v>
-      </c>
-      <c r="K7">
+      <c r="I8">
+        <v>19.025</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2006</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9">
+        <v>4.676</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>19.733</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>2006</v>
+      </c>
+      <c r="F10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>5.596</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>22.125</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2006</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <v>0.643</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>31.404</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>2006</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>59.05</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>34.027</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>2006</v>
+      </c>
+      <c r="F13">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>58.614</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>34.542</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2006</v>
+      </c>
+      <c r="F14">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <v>3.864</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>25.378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2006</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>4.447</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>21.629</v>
       </c>
     </row>
   </sheetData>
@@ -1681,927 +2188,2183 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:W$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.1111111111111" customWidth="1"/>
-    <col min="2" max="8" width="8.88888888888889" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3333333333333" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88888888888889" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="9" width="13.4444444444444" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="16.1111111111111" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="21" width="13.4444444444444" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="16.1111111111111" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" t="s">
+    <row r="1" spans="2:23">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S3" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2327</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3188</v>
+      </c>
+      <c r="N4" s="1">
+        <v>716</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3978</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6787</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.044</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>594</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="1">
+        <v>29</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="R10" s="1">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="T10" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:21">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="O11" s="1">
+        <v>215</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.063</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U11" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1492</v>
+      </c>
+      <c r="N12" s="1">
+        <v>51</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="C16" s="1">
+        <v>218</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="E16" s="1">
+        <v>218</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.044</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.017</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.052</v>
+      </c>
+      <c r="S16" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.188</v>
+      </c>
+      <c r="W16" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:21">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.022</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.079</v>
+      </c>
+      <c r="E17" s="1">
+        <v>346</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>18</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.07</v>
+      </c>
+      <c r="S17" s="1">
+        <v>87</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="U17" s="1">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6383</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1694</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4385</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2758</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5354</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1568</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1724</v>
+      </c>
+      <c r="T18" s="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1137</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>908</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1954</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>27</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="O19" s="1">
+        <v>773</v>
+      </c>
+      <c r="P19" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>588</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1256</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="U19" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>437</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2485</v>
+      </c>
+      <c r="D21" s="1">
+        <v>132</v>
+      </c>
+      <c r="E21" s="1">
+        <v>21660</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2642</v>
+      </c>
+      <c r="H21" s="1">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1">
+        <v>52040</v>
+      </c>
+      <c r="N21" s="1">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3941</v>
+      </c>
+      <c r="P21" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2633</v>
+      </c>
+      <c r="R21" s="1">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1">
+        <v>5858</v>
+      </c>
+      <c r="T21" s="1">
+        <v>20</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:21">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.715</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1470</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>480</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6510</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I22" s="1">
+        <v>320</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6045</v>
+      </c>
+      <c r="R22" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>12351</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1">
+        <v>46</v>
+      </c>
+      <c r="I23" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:21">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1">
+        <v>158</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1844</v>
+      </c>
+      <c r="N24" s="1">
+        <v>72</v>
+      </c>
+      <c r="O24" s="1">
+        <v>557</v>
+      </c>
+      <c r="R24" s="1">
+        <v>2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>8</v>
+      </c>
+      <c r="T24" s="1">
+        <v>29</v>
+      </c>
+      <c r="U24" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:21">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4208</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1224</v>
+      </c>
+      <c r="F25" s="1">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2238</v>
+      </c>
+      <c r="H25" s="1">
+        <v>153</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2522</v>
+      </c>
+      <c r="N25" s="1">
+        <v>99</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2890</v>
+      </c>
+      <c r="P25" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2935</v>
+      </c>
+      <c r="R25" s="1">
+        <v>34</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2926</v>
+      </c>
+      <c r="T25" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="U25" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:21">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1">
+        <v>234</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D26" s="1">
+        <v>251</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2411</v>
+      </c>
+      <c r="F26" s="1">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1223</v>
+      </c>
+      <c r="H26" s="1">
+        <v>323</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1614</v>
+      </c>
+      <c r="N26" s="1">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O26" s="1">
+        <v>48</v>
+      </c>
+      <c r="P26" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>175</v>
+      </c>
+      <c r="R26" s="1">
+        <v>38</v>
+      </c>
+      <c r="S26" s="1">
+        <v>419</v>
+      </c>
+      <c r="T26" s="1">
+        <v>16</v>
+      </c>
+      <c r="U26" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.052</v>
+      </c>
+      <c r="S27" s="1">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:21">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <v>120</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1857</v>
+      </c>
+      <c r="D28" s="1">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1">
+        <v>235</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1720</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4990</v>
+      </c>
+      <c r="I28" s="1">
+        <v>75436</v>
+      </c>
+      <c r="N28" s="1">
+        <v>691</v>
+      </c>
+      <c r="O28" s="1">
+        <v>10896</v>
+      </c>
+      <c r="P28" s="1">
+        <v>509</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3344</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1247</v>
+      </c>
+      <c r="S28" s="1">
+        <v>6947</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3202</v>
+      </c>
+      <c r="U28" s="1">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:23">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>274</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="O29" s="1">
+        <v>13</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="U29" s="1">
+        <v>94</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.136</v>
+      </c>
+      <c r="W29" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:23">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="O30" s="1">
+        <v>51</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.053</v>
+      </c>
+      <c r="U30" s="1">
+        <v>93</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.048</v>
+      </c>
+      <c r="W30" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.14</v>
+      </c>
+      <c r="I31" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:21">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.393</v>
+      </c>
+      <c r="C32" s="1">
+        <v>306</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2969</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3214</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4.19</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2402</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O32" s="1">
+        <v>8.7</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>76</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1712</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U32" s="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:23">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.699</v>
+      </c>
+      <c r="E33" s="1">
+        <v>961</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.131</v>
+      </c>
+      <c r="G33" s="1">
+        <v>131</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.039</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>74</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="S33" s="1">
+        <v>297</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.008</v>
+      </c>
+      <c r="W33" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:19">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="O34" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="S34" s="1">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:21">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E35" s="1">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>101</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.017</v>
+      </c>
+      <c r="S35" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.052</v>
+      </c>
+      <c r="U35" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="2">
+        <v>36.2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>73</v>
+      </c>
+      <c r="L39" s="2">
+        <v>35</v>
+      </c>
+      <c r="M39" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" s="2">
+        <v>106.96</v>
+      </c>
+      <c r="W39" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>90</v>
+      </c>
+      <c r="L40" s="2">
+        <v>12</v>
+      </c>
+      <c r="M40" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="L41" s="2">
+        <v>176</v>
+      </c>
+      <c r="M41" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="K42" s="2">
+        <v>20</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>93</v>
+      </c>
+      <c r="V42" s="2">
+        <v>2.162</v>
+      </c>
+      <c r="W42" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K43" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="W43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K44" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M44" s="2">
+        <v>10</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0.254</v>
+      </c>
+      <c r="W44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="K45" s="2">
+        <v>67</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.007</v>
+      </c>
+      <c r="M45" s="2">
+        <v>7</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W45" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.093</v>
+      </c>
+      <c r="K46" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.083</v>
+      </c>
+      <c r="K47" s="2">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L47" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="M47" s="2">
+        <v>20</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="W47" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.037</v>
+      </c>
+      <c r="K49" s="2">
+        <v>20</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="W49" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.027</v>
+      </c>
+      <c r="K50" s="2">
+        <v>17</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M50" s="2">
+        <v>10</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1.806</v>
+      </c>
+      <c r="W50" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.027</v>
+      </c>
+      <c r="K51" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.023</v>
+      </c>
+      <c r="K52" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.013</v>
+      </c>
+      <c r="K53" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.013</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="M54" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0.056</v>
+      </c>
+      <c r="W54" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.013</v>
+      </c>
+      <c r="K55" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.273</v>
+      </c>
+      <c r="M55" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K56" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.007</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0.672</v>
+      </c>
+      <c r="W57" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.007</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.001</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.001</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.001</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L62" s="2">
+        <v>3</v>
+      </c>
+      <c r="M62" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.097</v>
+      </c>
+      <c r="M63" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1.228</v>
+      </c>
+      <c r="W63" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M64" s="2">
+        <v>7</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0.082</v>
+      </c>
+      <c r="W64" s="2">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>6383</v>
-      </c>
-      <c r="D3">
-        <v>1694</v>
-      </c>
-      <c r="F3">
-        <v>4385</v>
-      </c>
-      <c r="H3">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>2327</v>
-      </c>
-      <c r="F4">
-        <v>2996</v>
-      </c>
-      <c r="H4">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="M65" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0.724</v>
+      </c>
+      <c r="W65" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.017</v>
+      </c>
+      <c r="M66" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0.082</v>
+      </c>
+      <c r="W66" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M67" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="M68" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V69" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="W69" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V70" s="2">
+        <v>14.24</v>
+      </c>
+      <c r="W70" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="V71" s="2">
+        <v>4.52</v>
+      </c>
+      <c r="W71" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V72" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="W72" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="V73" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="W73" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0.948</v>
+      </c>
+      <c r="W74" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V75" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="W75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V77" s="2">
+        <v>0.688</v>
+      </c>
+      <c r="W77" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0.636</v>
+      </c>
+      <c r="W78" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.093</v>
+      </c>
+      <c r="K79" s="2">
+        <v>20</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0.466</v>
+      </c>
+      <c r="W79" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0.382</v>
+      </c>
+      <c r="W80" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="W81" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0.288</v>
+      </c>
+      <c r="W82" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="W83" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="W84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C5">
-        <v>1857</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="F5">
-        <v>235</v>
-      </c>
-      <c r="G5">
-        <v>1720</v>
-      </c>
-      <c r="H5">
-        <v>4990</v>
-      </c>
-      <c r="I5">
-        <v>75436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>234</v>
-      </c>
-      <c r="C6">
-        <v>1004</v>
-      </c>
-      <c r="D6">
-        <v>251</v>
-      </c>
-      <c r="E6">
-        <v>2411</v>
-      </c>
-      <c r="F6">
-        <v>168</v>
-      </c>
-      <c r="G6">
-        <v>1223</v>
-      </c>
-      <c r="H6">
-        <v>323</v>
-      </c>
-      <c r="I6">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>104</v>
-      </c>
-      <c r="C7">
-        <v>4208</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1224</v>
-      </c>
-      <c r="F7">
-        <v>46</v>
-      </c>
-      <c r="G7">
-        <v>2238</v>
-      </c>
-      <c r="H7">
+      <c r="V85" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="W85" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0.176</v>
+      </c>
+      <c r="W86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V87" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="W87" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V88" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="W88" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="W89" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0.102</v>
+      </c>
+      <c r="W90" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0.088</v>
+      </c>
+      <c r="W91" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0.078</v>
+      </c>
+      <c r="W92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="W94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V95" s="2">
+        <v>0.068</v>
+      </c>
+      <c r="W95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0.064</v>
+      </c>
+      <c r="W96" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V97" s="2">
+        <v>0.064</v>
+      </c>
+      <c r="W97" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V98" s="2">
+        <v>0.062</v>
+      </c>
+      <c r="W98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V99" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="W99" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0.056</v>
+      </c>
+      <c r="W100" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="V101" s="2">
+        <v>0.048</v>
+      </c>
+      <c r="W101" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V102" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="W102" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V103" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V104" s="2">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V105" s="2">
+        <v>0.024</v>
+      </c>
+      <c r="W105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V106" s="2">
+        <v>0.018</v>
+      </c>
+      <c r="W106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="V107" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W107" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="V108" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W108" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V109" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W109" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V110" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W110" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V111" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W111" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V112" s="2">
+        <v>0.016</v>
+      </c>
+      <c r="W112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V113" s="2">
+        <v>0.014</v>
+      </c>
+      <c r="W113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0.012</v>
+      </c>
+      <c r="W114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V115" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="V116" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W116" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V117" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="W117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V118" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="W118" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I7">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8">
-        <v>18.3</v>
-      </c>
-      <c r="C8">
-        <v>2485</v>
-      </c>
-      <c r="D8">
-        <v>132</v>
-      </c>
-      <c r="E8">
-        <v>21660</v>
-      </c>
-      <c r="F8">
-        <v>20.8</v>
-      </c>
-      <c r="G8">
-        <v>2642</v>
-      </c>
-      <c r="H8">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>52040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>5.3</v>
-      </c>
-      <c r="C9">
-        <v>1137</v>
-      </c>
-      <c r="D9">
-        <v>9.5</v>
-      </c>
-      <c r="E9">
-        <v>908</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>1954</v>
-      </c>
-      <c r="H9">
-        <v>3.1</v>
-      </c>
-      <c r="I9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>0.715</v>
-      </c>
-      <c r="C10">
-        <v>1470</v>
-      </c>
-      <c r="D10">
-        <v>0.18</v>
-      </c>
-      <c r="E10">
-        <v>480</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>6510</v>
-      </c>
-      <c r="H10">
-        <v>0.19</v>
-      </c>
-      <c r="I10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>0.393</v>
-      </c>
-      <c r="C11">
-        <v>218</v>
-      </c>
-      <c r="D11">
-        <v>0.218</v>
-      </c>
-      <c r="E11">
-        <v>218</v>
-      </c>
-      <c r="F11">
-        <v>0.044</v>
-      </c>
-      <c r="G11">
-        <v>44</v>
-      </c>
-      <c r="L11">
-        <v>0.017</v>
-      </c>
-      <c r="M11">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>0.393</v>
-      </c>
-      <c r="C12">
-        <v>306</v>
-      </c>
-      <c r="D12">
-        <v>3.9</v>
-      </c>
-      <c r="E12">
-        <v>2969</v>
-      </c>
-      <c r="F12">
-        <v>4.8</v>
-      </c>
-      <c r="G12">
-        <v>3214</v>
-      </c>
-      <c r="H12">
-        <v>4.19</v>
-      </c>
-      <c r="I12">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>0.022</v>
-      </c>
-      <c r="C13">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>0.079</v>
-      </c>
-      <c r="E13">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>594</v>
-      </c>
-      <c r="H14">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>7.5</v>
-      </c>
-      <c r="E16">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>0.699</v>
-      </c>
-      <c r="E17">
-        <v>961</v>
-      </c>
-      <c r="F17">
-        <v>0.131</v>
-      </c>
-      <c r="G17">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>0.04</v>
-      </c>
-      <c r="E18">
-        <v>87</v>
-      </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
-      <c r="G18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19">
-        <v>0.044</v>
-      </c>
-      <c r="G19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21">
+      <c r="V119" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="W119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V120" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="W120" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V121" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="W121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="V122" s="2">
+        <v>0.004</v>
+      </c>
+      <c r="W122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V123" s="2">
+        <v>0.004</v>
+      </c>
+      <c r="W123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I21">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22">
-        <v>46</v>
-      </c>
-      <c r="I22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23">
-        <v>5.3</v>
-      </c>
-      <c r="I23">
-        <v>274</v>
-      </c>
-      <c r="L23">
-        <v>3.97</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26">
-        <v>1.14</v>
-      </c>
-      <c r="I26">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28">
-        <v>36.2</v>
-      </c>
-      <c r="K28">
-        <v>73</v>
-      </c>
-      <c r="L28">
-        <v>35</v>
-      </c>
-      <c r="M28">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29">
-        <v>11.2</v>
-      </c>
-      <c r="K29">
-        <v>90</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30">
-        <v>6.2</v>
-      </c>
-      <c r="K30">
-        <v>46.7</v>
-      </c>
-      <c r="L30">
-        <v>176</v>
-      </c>
-      <c r="M30">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31">
-        <v>1.06</v>
-      </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-      <c r="L31">
-        <v>5.5</v>
-      </c>
-      <c r="M31">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32">
-        <v>0.27</v>
-      </c>
-      <c r="K32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33">
-        <v>0.25</v>
-      </c>
-      <c r="K33">
-        <v>6.7</v>
-      </c>
-      <c r="L33">
-        <v>1.05</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34">
-        <v>0.107</v>
-      </c>
-      <c r="K34">
-        <v>67</v>
-      </c>
-      <c r="L34">
-        <v>0.007</v>
-      </c>
-      <c r="M34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35">
-        <v>0.093</v>
-      </c>
-      <c r="K35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36">
-        <v>0.083</v>
-      </c>
-      <c r="K36">
-        <v>17</v>
-      </c>
-      <c r="L36">
-        <v>0.81</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37">
-        <v>0.06</v>
-      </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="J38">
-        <v>0.037</v>
-      </c>
-      <c r="K38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39">
-        <v>0.027</v>
-      </c>
-      <c r="K39">
-        <v>17</v>
-      </c>
-      <c r="L39">
-        <v>0.02</v>
-      </c>
-      <c r="M39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40">
-        <v>0.027</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="J41">
-        <v>0.023</v>
-      </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42">
-        <v>0.013</v>
-      </c>
-      <c r="K42">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43">
-        <v>0.013</v>
-      </c>
-      <c r="K43">
-        <v>3.3</v>
-      </c>
-      <c r="L43">
-        <v>0.003</v>
-      </c>
-      <c r="M43">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44">
-        <v>0.013</v>
-      </c>
-      <c r="K44">
-        <v>3.3</v>
-      </c>
-      <c r="L44">
-        <v>0.273</v>
-      </c>
-      <c r="M44">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45">
-        <v>0.01</v>
-      </c>
-      <c r="K45">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="J46">
-        <v>0.007</v>
-      </c>
-      <c r="K46">
-        <v>3.3</v>
-      </c>
-      <c r="L46">
-        <v>0.01</v>
-      </c>
-      <c r="M46">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47">
-        <v>0.007</v>
-      </c>
-      <c r="K47">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48">
-        <v>0.003</v>
-      </c>
-      <c r="K48">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
-        <v>74</v>
-      </c>
-      <c r="J49">
-        <v>0.001</v>
-      </c>
-      <c r="L49">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50">
-        <v>0.001</v>
-      </c>
-      <c r="L50">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="L52">
-        <v>0.097</v>
-      </c>
-      <c r="M52">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>78</v>
-      </c>
-      <c r="L53">
-        <v>0.08</v>
-      </c>
-      <c r="M53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="L54">
-        <v>0.07</v>
-      </c>
-      <c r="M54">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="s">
-        <v>80</v>
-      </c>
-      <c r="L55">
-        <v>0.017</v>
-      </c>
-      <c r="M55">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="L56">
-        <v>0.01</v>
-      </c>
-      <c r="M56">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="L57">
-        <v>0.003</v>
-      </c>
-      <c r="M57">
-        <v>3.3</v>
+      <c r="V124" s="2">
+        <v>0.004</v>
+      </c>
+      <c r="W124" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V125" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="W125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V126" s="2">
+        <v>0.002</v>
+      </c>
+      <c r="W126" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:W36">
+    <sortCondition ref="A36"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
